--- a/code/景點營業時間.xlsx
+++ b/code/景點營業時間.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,7 +76,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--</t>
+    <t>書店街  各種店家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早9點有店家開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最晚開到22:30左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅接受團體預約參訪</t>
+  </si>
+  <si>
+    <t>需預約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2個月前評論說在整修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到營業時間Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寧夏夜市旁的古蹟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓FB的營業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{休息}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10:00-17:00}</t>
+  </si>
+  <si>
+    <t>{10:00-17:00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年有評論說不對外開放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但後面有評論是有拍照的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個月前評論"維修中無法參觀"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感覺有點小問題  推薦可以刪掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chenyueji/</t>
+  </si>
+  <si>
+    <t>https://archive.ntut.edu.tw/p/404-1050-92395.php?Lang=zh-tw</t>
+  </si>
+  <si>
+    <t>{9:00-20:00}</t>
+  </si>
+  <si>
+    <t>{9:00-20:00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北科紅樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9:00-17:00}</t>
+  </si>
+  <si>
+    <t>{9:00-17:00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天到18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評論:建議夕陽的時候去 很漂亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒寫營業時間 但在戶外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國街 ，拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb的營業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廁所，開放時間早上六點～晚上九點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身為公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起來很好玩(X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +227,36 @@
       <color rgb="FF444444"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -130,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +291,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,11 +589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
@@ -434,7 +601,7 @@
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +614,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>127</v>
       </c>
@@ -468,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>128</v>
       </c>
@@ -479,7 +649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>129</v>
       </c>
@@ -490,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>130</v>
       </c>
@@ -501,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>131</v>
       </c>
@@ -512,7 +682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>132</v>
       </c>
@@ -523,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>133</v>
       </c>
@@ -534,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>190</v>
       </c>
@@ -545,7 +715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>191</v>
       </c>
@@ -556,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>192</v>
       </c>
@@ -567,7 +737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>193</v>
       </c>
@@ -578,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>194</v>
       </c>
@@ -589,7 +759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>195</v>
       </c>
@@ -600,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>196</v>
       </c>
@@ -611,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>246</v>
       </c>
@@ -622,7 +792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>247</v>
       </c>
@@ -633,7 +803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>248</v>
       </c>
@@ -644,7 +814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>249</v>
       </c>
@@ -655,7 +825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>250</v>
       </c>
@@ -666,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>251</v>
       </c>
@@ -677,7 +847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>252</v>
       </c>
@@ -688,7 +858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>358</v>
       </c>
@@ -699,7 +869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>359</v>
       </c>
@@ -710,7 +880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>360</v>
       </c>
@@ -721,7 +891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>361</v>
       </c>
@@ -732,7 +902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>362</v>
       </c>
@@ -743,7 +913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>363</v>
       </c>
@@ -754,7 +924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>364</v>
       </c>
@@ -765,7 +935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>407</v>
       </c>
@@ -776,7 +946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>408</v>
       </c>
@@ -787,7 +957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>409</v>
       </c>
@@ -798,7 +968,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>410</v>
       </c>
@@ -809,7 +979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>411</v>
       </c>
@@ -820,7 +990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>412</v>
       </c>
@@ -831,7 +1001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>413</v>
       </c>
@@ -842,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>603</v>
       </c>
@@ -853,7 +1023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>604</v>
       </c>
@@ -864,7 +1034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>605</v>
       </c>
@@ -875,7 +1045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>606</v>
       </c>
@@ -886,7 +1056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>607</v>
       </c>
@@ -897,7 +1067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>608</v>
       </c>
@@ -908,7 +1078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>609</v>
       </c>
@@ -919,7 +1089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>771</v>
       </c>
@@ -930,7 +1100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>772</v>
       </c>
@@ -941,7 +1111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>773</v>
       </c>
@@ -952,7 +1122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>774</v>
       </c>
@@ -963,7 +1133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>775</v>
       </c>
@@ -974,7 +1144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>776</v>
       </c>
@@ -985,7 +1155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>777</v>
       </c>
@@ -996,7 +1166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>897</v>
       </c>
@@ -1010,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>898</v>
       </c>
@@ -1024,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>899</v>
       </c>
@@ -1038,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>900</v>
       </c>
@@ -1049,7 +1219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>901</v>
       </c>
@@ -1060,7 +1230,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>902</v>
       </c>
@@ -1071,7 +1241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>903</v>
       </c>
@@ -1082,7 +1252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>939</v>
       </c>
@@ -1093,7 +1263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>940</v>
       </c>
@@ -1104,7 +1274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>941</v>
       </c>
@@ -1115,7 +1285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>942</v>
       </c>
@@ -1126,7 +1296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>943</v>
       </c>
@@ -1137,7 +1307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>944</v>
       </c>
@@ -1148,7 +1318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>945</v>
       </c>
@@ -1159,7 +1329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>953</v>
       </c>
@@ -1170,7 +1340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>954</v>
       </c>
@@ -1181,7 +1351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>955</v>
       </c>
@@ -1192,7 +1362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>956</v>
       </c>
@@ -1203,7 +1373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>957</v>
       </c>
@@ -1214,7 +1384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>958</v>
       </c>
@@ -1225,7 +1395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>959</v>
       </c>
@@ -1236,255 +1406,381 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>1093</v>
       </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
       <c r="C72">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>1094</v>
       </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
       <c r="C73">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>1095</v>
       </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
       <c r="C74">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>1096</v>
       </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
       <c r="C75">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>1097</v>
       </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
       <c r="C76">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>1098</v>
       </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
       <c r="C77">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>1099</v>
       </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
       <c r="C78">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>1156</v>
       </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
       <c r="C79">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>1157</v>
       </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
       <c r="C80">
         <v>166</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>1158</v>
       </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
       <c r="C81">
         <v>166</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>1159</v>
       </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
       <c r="C82">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>1160</v>
       </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
       <c r="C83">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>1161</v>
       </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
       <c r="C84">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>1162</v>
       </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
       <c r="C85">
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>1261</v>
       </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C86">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>1262</v>
       </c>
+      <c r="B87" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C87">
         <v>181</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>1263</v>
       </c>
+      <c r="B88" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C88">
         <v>181</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>1264</v>
       </c>
+      <c r="B89" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C89">
         <v>181</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>1265</v>
       </c>
+      <c r="B90" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C90">
         <v>181</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>1266</v>
       </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C91">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>1267</v>
       </c>
+      <c r="B92" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C92">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>1275</v>
       </c>
+      <c r="B93" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C93">
         <v>183</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>1276</v>
       </c>
+      <c r="B94" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C94">
         <v>183</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>1277</v>
       </c>
+      <c r="B95" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C95">
         <v>183</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>1278</v>
       </c>
+      <c r="B96" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C96">
         <v>183</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>1279</v>
       </c>
+      <c r="B97" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C97">
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>1280</v>
       </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
       <c r="C98">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>1281</v>
       </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
       <c r="C99">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>1310</v>
       </c>
       <c r="C100">
         <v>188</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>1311</v>
       </c>
       <c r="C101">
         <v>188</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>1312</v>
       </c>
       <c r="C102">
         <v>188</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>1313</v>
       </c>
@@ -1492,7 +1788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>1314</v>
       </c>
@@ -1500,7 +1796,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>1315</v>
       </c>
@@ -1508,7 +1804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>1316</v>
       </c>
@@ -1516,682 +1812,965 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>1800</v>
       </c>
+      <c r="B107" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C107">
         <v>258</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>1801</v>
       </c>
+      <c r="B108" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C108">
         <v>258</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>1802</v>
       </c>
+      <c r="B109" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C109">
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>1803</v>
       </c>
+      <c r="B110" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C110">
         <v>258</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>1804</v>
       </c>
+      <c r="B111" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C111">
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>1805</v>
       </c>
+      <c r="B112" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C112">
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>1806</v>
       </c>
+      <c r="B113" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C113">
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>1898</v>
       </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
       <c r="C114">
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>1899</v>
       </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
       <c r="C115">
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>1900</v>
       </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
       <c r="C116">
         <v>272</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>1901</v>
       </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
       <c r="C117">
         <v>272</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>1902</v>
       </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
       <c r="C118">
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>1903</v>
       </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
       <c r="C119">
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>1904</v>
       </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
       <c r="C120">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>2031</v>
       </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
       <c r="C121">
         <v>291</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>2032</v>
       </c>
+      <c r="B122" t="s">
+        <v>36</v>
+      </c>
       <c r="C122">
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>2033</v>
       </c>
+      <c r="B123" t="s">
+        <v>36</v>
+      </c>
       <c r="C123">
         <v>291</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>2034</v>
       </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
       <c r="C124">
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>2035</v>
       </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
       <c r="C125">
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>2036</v>
       </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
       <c r="C126">
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>2037</v>
       </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
       <c r="C127">
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>2157</v>
       </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
       <c r="C128">
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>2158</v>
       </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
       <c r="C129">
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>2159</v>
       </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
       <c r="C130">
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>2160</v>
       </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
       <c r="C131">
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>2161</v>
       </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
       <c r="C132">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>2162</v>
       </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
       <c r="C133">
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>2163</v>
       </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
       <c r="C134">
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>2234</v>
       </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
       <c r="C135">
         <v>320</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>2235</v>
       </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
       <c r="C136">
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>2236</v>
       </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
       <c r="C137">
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>2237</v>
       </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
       <c r="C138">
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>2238</v>
       </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
       <c r="C139">
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>2239</v>
       </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
       <c r="C140">
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>2240</v>
       </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
       <c r="C141">
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>2381</v>
       </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
       <c r="C142">
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>2382</v>
       </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
       <c r="C143">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>2383</v>
       </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
       <c r="C144">
         <v>341</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>2384</v>
       </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
       <c r="C145">
         <v>341</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>2385</v>
       </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
       <c r="C146">
         <v>341</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>2386</v>
       </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
       <c r="C147">
         <v>341</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>2387</v>
       </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
       <c r="C148">
         <v>341</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>2451</v>
       </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
       <c r="C149">
         <v>351</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>2452</v>
       </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
       <c r="C150">
         <v>351</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>2453</v>
       </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
       <c r="C151">
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>2454</v>
       </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
       <c r="C152">
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>2455</v>
       </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
       <c r="C153">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>2456</v>
       </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
       <c r="C154">
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>2457</v>
       </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
       <c r="C155">
         <v>351</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>2500</v>
       </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
       <c r="C156">
         <v>358</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>2501</v>
       </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
       <c r="C157">
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>2502</v>
       </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
       <c r="C158">
         <v>358</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>2503</v>
       </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
       <c r="C159">
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>2504</v>
       </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
       <c r="C160">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>2505</v>
       </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
       <c r="C161">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>2506</v>
       </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
       <c r="C162">
         <v>358</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>2612</v>
       </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
       <c r="C163">
         <v>374</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>2613</v>
       </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
       <c r="C164">
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>2614</v>
       </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
       <c r="C165">
         <v>374</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>2615</v>
       </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
       <c r="C166">
         <v>374</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>2616</v>
       </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
       <c r="C167">
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>2617</v>
       </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
       <c r="C168">
         <v>374</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>2618</v>
       </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
       <c r="C169">
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>2703</v>
       </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
       <c r="C170">
         <v>387</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>2704</v>
       </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
       <c r="C171">
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>2705</v>
       </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
       <c r="C172">
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>2706</v>
       </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
       <c r="C173">
         <v>387</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>2707</v>
       </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
       <c r="C174">
         <v>387</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>2708</v>
       </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
       <c r="C175">
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>2709</v>
       </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
       <c r="C176">
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>2773</v>
       </c>
+      <c r="B177" t="s">
+        <v>36</v>
+      </c>
       <c r="C177">
         <v>397</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>2774</v>
       </c>
+      <c r="B178" t="s">
+        <v>36</v>
+      </c>
       <c r="C178">
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>2775</v>
       </c>
+      <c r="B179" t="s">
+        <v>35</v>
+      </c>
       <c r="C179">
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>2776</v>
       </c>
+      <c r="B180" t="s">
+        <v>35</v>
+      </c>
       <c r="C180">
         <v>397</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>2777</v>
       </c>
+      <c r="B181" t="s">
+        <v>35</v>
+      </c>
       <c r="C181">
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>2778</v>
       </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
       <c r="C182">
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>2779</v>
       </c>
+      <c r="B183" t="s">
+        <v>35</v>
+      </c>
       <c r="C183">
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>2878</v>
       </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
       <c r="C184">
         <v>412</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E184" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>2879</v>
       </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
       <c r="C185">
         <v>412</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E185" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>2880</v>
       </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
       <c r="C186">
         <v>412</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E186" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>2881</v>
       </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
       <c r="C187">
         <v>412</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>2882</v>
       </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
       <c r="C188">
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>2883</v>
       </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
       <c r="C189">
         <v>412</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>2884</v>
       </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
       <c r="C190">
         <v>412</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>3053</v>
       </c>
@@ -2199,7 +2778,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>3054</v>
       </c>
@@ -2207,7 +2786,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>3055</v>
       </c>
@@ -2215,7 +2794,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>3056</v>
       </c>
@@ -2223,7 +2802,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>3057</v>
       </c>
@@ -2231,7 +2810,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>3058</v>
       </c>
@@ -2239,7 +2818,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>3059</v>
       </c>
@@ -2247,7 +2826,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>3137</v>
       </c>
@@ -2255,7 +2834,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>3138</v>
       </c>
@@ -2263,7 +2842,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>3139</v>
       </c>
@@ -2271,7 +2850,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>3140</v>
       </c>
@@ -2279,7 +2858,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>3141</v>
       </c>
@@ -2287,7 +2866,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>3142</v>
       </c>
@@ -2295,7 +2874,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>3143</v>
       </c>
@@ -2303,7 +2882,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>3144</v>
       </c>
@@ -2311,7 +2890,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>3145</v>
       </c>
@@ -2319,7 +2898,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>3146</v>
       </c>
@@ -2327,7 +2906,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>3147</v>
       </c>
@@ -2335,7 +2914,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>3148</v>
       </c>
@@ -2343,7 +2922,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>3149</v>
       </c>
@@ -2351,7 +2930,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>3150</v>
       </c>
@@ -2359,7 +2938,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>3158</v>
       </c>
@@ -2367,7 +2946,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>3159</v>
       </c>
@@ -2375,7 +2954,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>3160</v>
       </c>
@@ -2383,7 +2962,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>3161</v>
       </c>
@@ -2391,7 +2970,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>3162</v>
       </c>
@@ -2399,7 +2978,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>3163</v>
       </c>
@@ -2407,7 +2986,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>3164</v>
       </c>
@@ -2415,7 +2994,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>3179</v>
       </c>
@@ -2423,7 +3002,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>3180</v>
       </c>
@@ -2431,7 +3010,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>3181</v>
       </c>
@@ -2439,7 +3018,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>3182</v>
       </c>
@@ -2447,7 +3026,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>3183</v>
       </c>
@@ -2455,7 +3034,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>3184</v>
       </c>
@@ -2463,7 +3042,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>3185</v>
       </c>
@@ -2471,7 +3050,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>3235</v>
       </c>
@@ -2479,7 +3058,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>3236</v>
       </c>
@@ -2487,7 +3066,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>3237</v>
       </c>
@@ -2495,7 +3074,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>3238</v>
       </c>
@@ -2503,7 +3082,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>3239</v>
       </c>
@@ -2511,7 +3090,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>3240</v>
       </c>
@@ -2519,7 +3098,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>3241</v>
       </c>
@@ -2527,7 +3106,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>3627</v>
       </c>
@@ -2535,7 +3114,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>3628</v>
       </c>
@@ -2543,7 +3122,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>3629</v>
       </c>
@@ -2551,7 +3130,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>3630</v>
       </c>
@@ -2559,7 +3138,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>3631</v>
       </c>
@@ -2567,7 +3146,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>3632</v>
       </c>
@@ -2575,7 +3154,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>3633</v>
       </c>
@@ -2583,7 +3162,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>3858</v>
       </c>
@@ -2591,7 +3170,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>3859</v>
       </c>
@@ -2599,7 +3178,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>3860</v>
       </c>
@@ -2607,7 +3186,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>3861</v>
       </c>
@@ -2615,7 +3194,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>3862</v>
       </c>
@@ -2623,7 +3202,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>3863</v>
       </c>
@@ -2631,7 +3210,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>3864</v>
       </c>
@@ -2639,7 +3218,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>3977</v>
       </c>
@@ -2647,7 +3226,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>3978</v>
       </c>
@@ -2655,7 +3234,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>3979</v>
       </c>
@@ -2663,7 +3242,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>3980</v>
       </c>
@@ -2671,7 +3250,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>3981</v>
       </c>
@@ -2679,7 +3258,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>3982</v>
       </c>
@@ -2687,7 +3266,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>3983</v>
       </c>
@@ -2695,7 +3274,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>4054</v>
       </c>
@@ -2703,7 +3282,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>4055</v>
       </c>
@@ -2711,7 +3290,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>4056</v>
       </c>
@@ -2719,7 +3298,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>4057</v>
       </c>
@@ -2727,7 +3306,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>4058</v>
       </c>
@@ -2735,7 +3314,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>4059</v>
       </c>
@@ -2743,7 +3322,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>4060</v>
       </c>
@@ -2751,7 +3330,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>4075</v>
       </c>
@@ -2759,7 +3338,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>4076</v>
       </c>
@@ -2767,7 +3346,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>4077</v>
       </c>
@@ -2775,7 +3354,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>4078</v>
       </c>
@@ -2783,7 +3362,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>4079</v>
       </c>
@@ -2791,7 +3370,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>4080</v>
       </c>
@@ -2799,7 +3378,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>4081</v>
       </c>
@@ -2807,7 +3386,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>4152</v>
       </c>
@@ -2815,7 +3394,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>4153</v>
       </c>
@@ -2823,7 +3402,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>4154</v>
       </c>
@@ -2831,7 +3410,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>4155</v>
       </c>
@@ -2839,7 +3418,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>4156</v>
       </c>
@@ -2847,7 +3426,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>4157</v>
       </c>
@@ -2855,7 +3434,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>4158</v>
       </c>
@@ -2863,7 +3442,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>4390</v>
       </c>
@@ -2871,7 +3450,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>4391</v>
       </c>
@@ -2879,7 +3458,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>4392</v>
       </c>
@@ -2887,7 +3466,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>4393</v>
       </c>
@@ -2895,7 +3474,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279">
         <v>4394</v>
       </c>
@@ -2903,7 +3482,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>4395</v>
       </c>
@@ -2911,7 +3490,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281">
         <v>4396</v>
       </c>
@@ -2919,7 +3498,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282">
         <v>4404</v>
       </c>
@@ -2927,7 +3506,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>4405</v>
       </c>
@@ -2935,7 +3514,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>4406</v>
       </c>
@@ -2943,7 +3522,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>4407</v>
       </c>
@@ -2951,7 +3530,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>4408</v>
       </c>
@@ -2959,7 +3538,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>4409</v>
       </c>
@@ -2967,7 +3546,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>4410</v>
       </c>
@@ -2975,7 +3554,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289">
         <v>4488</v>
       </c>
@@ -2983,7 +3562,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>4489</v>
       </c>
@@ -2991,7 +3570,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291">
         <v>4490</v>
       </c>
@@ -2999,7 +3578,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>4491</v>
       </c>
@@ -3007,7 +3586,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>4492</v>
       </c>
@@ -3015,7 +3594,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>4493</v>
       </c>
@@ -3023,7 +3602,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>4494</v>
       </c>
@@ -3031,7 +3610,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>4782</v>
       </c>
@@ -3039,7 +3618,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>4783</v>
       </c>
@@ -3047,7 +3626,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298">
         <v>4784</v>
       </c>
@@ -3055,7 +3634,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>4785</v>
       </c>
@@ -3063,7 +3642,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>4786</v>
       </c>
@@ -3071,7 +3650,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>4787</v>
       </c>
@@ -3079,7 +3658,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>4788</v>
       </c>
@@ -3087,7 +3666,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303">
         <v>4789</v>
       </c>
@@ -3095,7 +3674,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304">
         <v>4790</v>
       </c>
@@ -3103,7 +3682,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305">
         <v>4791</v>
       </c>
@@ -3111,7 +3690,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306">
         <v>4792</v>
       </c>
@@ -3119,7 +3698,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307">
         <v>4793</v>
       </c>
@@ -3127,7 +3706,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>4794</v>
       </c>
@@ -3135,7 +3714,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>4795</v>
       </c>
@@ -3143,7 +3722,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310">
         <v>4915</v>
       </c>
@@ -3151,7 +3730,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>4916</v>
       </c>
@@ -3159,7 +3738,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312">
         <v>4917</v>
       </c>
@@ -3167,7 +3746,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313">
         <v>4918</v>
       </c>
@@ -3175,7 +3754,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>4919</v>
       </c>
@@ -3183,7 +3762,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315">
         <v>4920</v>
       </c>
@@ -3191,7 +3770,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316">
         <v>4921</v>
       </c>
@@ -3199,7 +3778,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317">
         <v>4943</v>
       </c>
@@ -3207,7 +3786,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318">
         <v>4944</v>
       </c>
@@ -3215,7 +3794,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319">
         <v>4945</v>
       </c>
@@ -3223,7 +3802,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320">
         <v>4946</v>
       </c>
@@ -3231,7 +3810,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321">
         <v>4947</v>
       </c>
@@ -3239,7 +3818,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>4948</v>
       </c>
@@ -3247,7 +3826,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>4949</v>
       </c>
@@ -3255,7 +3834,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324">
         <v>4950</v>
       </c>
@@ -3263,7 +3842,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325">
         <v>4951</v>
       </c>
@@ -3271,7 +3850,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>4952</v>
       </c>
@@ -3279,7 +3858,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327">
         <v>4953</v>
       </c>
@@ -3287,7 +3866,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328">
         <v>4954</v>
       </c>
@@ -3295,7 +3874,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>4955</v>
       </c>
@@ -3303,7 +3882,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>4956</v>
       </c>
@@ -3311,7 +3890,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>4985</v>
       </c>
@@ -3319,7 +3898,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>4986</v>
       </c>
@@ -3327,7 +3906,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333">
         <v>4987</v>
       </c>
@@ -3335,7 +3914,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334">
         <v>4988</v>
       </c>
@@ -3343,7 +3922,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335">
         <v>4989</v>
       </c>
@@ -3351,7 +3930,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336">
         <v>4990</v>
       </c>
@@ -3359,7 +3938,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337">
         <v>4991</v>
       </c>
@@ -3367,7 +3946,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338">
         <v>5076</v>
       </c>
@@ -3375,7 +3954,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339">
         <v>5077</v>
       </c>
@@ -3383,7 +3962,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340">
         <v>5078</v>
       </c>
@@ -3391,7 +3970,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341">
         <v>5079</v>
       </c>
@@ -3399,7 +3978,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342">
         <v>5080</v>
       </c>
@@ -3407,7 +3986,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343">
         <v>5081</v>
       </c>
@@ -3415,7 +3994,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344">
         <v>5082</v>
       </c>
@@ -3423,7 +4002,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345">
         <v>5118</v>
       </c>
@@ -3431,7 +4010,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346">
         <v>5119</v>
       </c>
@@ -3439,7 +4018,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347">
         <v>5120</v>
       </c>
@@ -3447,7 +4026,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348">
         <v>5121</v>
       </c>
@@ -3455,7 +4034,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349">
         <v>5122</v>
       </c>
@@ -3463,7 +4042,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>5123</v>
       </c>
@@ -3471,7 +4050,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351">
         <v>5124</v>
       </c>
@@ -3479,7 +4058,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352">
         <v>5160</v>
       </c>
@@ -3487,7 +4066,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353">
         <v>5161</v>
       </c>
@@ -3495,7 +4074,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>5162</v>
       </c>
@@ -3503,7 +4082,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>5163</v>
       </c>
@@ -3511,7 +4090,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356">
         <v>5164</v>
       </c>
@@ -3519,7 +4098,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>5165</v>
       </c>
@@ -3527,7 +4106,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358">
         <v>5166</v>
       </c>
@@ -3535,7 +4114,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>5293</v>
       </c>
@@ -3543,7 +4122,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360">
         <v>5294</v>
       </c>
@@ -3551,7 +4130,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361">
         <v>5295</v>
       </c>
@@ -3559,7 +4138,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362">
         <v>5296</v>
       </c>
@@ -3567,7 +4146,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>5297</v>
       </c>
@@ -3575,7 +4154,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364">
         <v>5298</v>
       </c>
@@ -3583,7 +4162,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365">
         <v>5299</v>
       </c>
@@ -3591,7 +4170,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366">
         <v>5426</v>
       </c>
@@ -3599,7 +4178,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367">
         <v>5427</v>
       </c>
@@ -3607,7 +4186,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>5428</v>
       </c>
@@ -3615,7 +4194,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>5429</v>
       </c>
@@ -3623,7 +4202,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>5430</v>
       </c>
@@ -3631,7 +4210,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371">
         <v>5431</v>
       </c>
@@ -3639,7 +4218,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372">
         <v>5432</v>
       </c>
@@ -3647,7 +4226,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>5447</v>
       </c>
@@ -3655,7 +4234,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374">
         <v>5448</v>
       </c>
@@ -3663,7 +4242,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375">
         <v>5449</v>
       </c>
@@ -3671,7 +4250,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376">
         <v>5450</v>
       </c>
@@ -3679,7 +4258,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377">
         <v>5451</v>
       </c>
@@ -3687,7 +4266,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378">
         <v>5452</v>
       </c>
@@ -3695,7 +4274,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>5453</v>
       </c>
@@ -3703,7 +4282,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380">
         <v>5573</v>
       </c>
@@ -3711,7 +4290,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>5574</v>
       </c>
@@ -3719,7 +4298,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382">
         <v>5575</v>
       </c>
@@ -3727,7 +4306,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383">
         <v>5576</v>
       </c>
@@ -3735,7 +4314,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384">
         <v>5577</v>
       </c>
@@ -3743,7 +4322,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385">
         <v>5578</v>
       </c>
@@ -3751,7 +4330,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>5579</v>
       </c>
@@ -3759,7 +4338,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>5580</v>
       </c>
@@ -3767,7 +4346,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>5581</v>
       </c>
@@ -3775,7 +4354,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389">
         <v>5582</v>
       </c>
@@ -3783,7 +4362,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390">
         <v>5583</v>
       </c>
@@ -3791,7 +4370,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>5584</v>
       </c>
@@ -3799,7 +4378,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392">
         <v>5585</v>
       </c>
@@ -3807,7 +4386,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393">
         <v>5586</v>
       </c>
@@ -3815,7 +4394,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>5615</v>
       </c>
@@ -3823,7 +4402,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395">
         <v>5616</v>
       </c>
@@ -3831,7 +4410,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>5617</v>
       </c>
@@ -3839,7 +4418,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397">
         <v>5618</v>
       </c>
@@ -3847,7 +4426,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>5619</v>
       </c>
@@ -3855,7 +4434,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399">
         <v>5620</v>
       </c>
@@ -3863,7 +4442,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400">
         <v>5621</v>
       </c>
@@ -3871,7 +4450,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>5643</v>
       </c>
@@ -3879,7 +4458,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>5644</v>
       </c>
@@ -3887,7 +4466,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>5645</v>
       </c>
@@ -3895,7 +4474,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>5646</v>
       </c>
@@ -3903,7 +4482,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405">
         <v>5647</v>
       </c>
@@ -3911,7 +4490,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406">
         <v>5648</v>
       </c>
@@ -3919,7 +4498,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>5649</v>
       </c>
@@ -3927,7 +4506,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>5678</v>
       </c>
@@ -3935,7 +4514,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409">
         <v>5679</v>
       </c>
@@ -3943,7 +4522,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410">
         <v>5680</v>
       </c>
@@ -3951,7 +4530,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>5681</v>
       </c>
@@ -3959,7 +4538,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>5682</v>
       </c>
@@ -3967,7 +4546,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>5683</v>
       </c>
@@ -3975,7 +4554,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>5684</v>
       </c>
@@ -3983,7 +4562,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415">
         <v>5713</v>
       </c>
@@ -3991,7 +4570,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>5714</v>
       </c>
@@ -3999,7 +4578,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>5715</v>
       </c>
@@ -4007,7 +4586,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>5716</v>
       </c>
@@ -4015,7 +4594,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>5717</v>
       </c>
@@ -4023,7 +4602,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>5718</v>
       </c>
@@ -4031,7 +4610,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>5719</v>
       </c>
@@ -4039,7 +4618,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>5762</v>
       </c>
@@ -4047,7 +4626,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423">
         <v>5763</v>
       </c>
@@ -4055,7 +4634,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424">
         <v>5764</v>
       </c>
@@ -4063,7 +4642,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425">
         <v>5765</v>
       </c>
@@ -4071,7 +4650,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426">
         <v>5766</v>
       </c>
@@ -4079,7 +4658,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427">
         <v>5767</v>
       </c>
@@ -4087,7 +4666,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428">
         <v>5768</v>
       </c>
@@ -4095,7 +4674,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429">
         <v>5783</v>
       </c>
@@ -4103,7 +4682,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430">
         <v>5784</v>
       </c>
@@ -4111,7 +4690,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431">
         <v>5785</v>
       </c>
@@ -4119,7 +4698,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432">
         <v>5786</v>
       </c>
@@ -4127,7 +4706,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433">
         <v>5787</v>
       </c>
@@ -4135,7 +4714,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434">
         <v>5788</v>
       </c>
@@ -4143,7 +4722,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435">
         <v>5789</v>
       </c>
@@ -4151,7 +4730,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436">
         <v>5846</v>
       </c>
@@ -4159,7 +4738,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437">
         <v>5847</v>
       </c>
@@ -4167,7 +4746,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438">
         <v>5848</v>
       </c>
@@ -4175,7 +4754,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439">
         <v>5849</v>
       </c>
@@ -4183,7 +4762,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440">
         <v>5850</v>
       </c>
@@ -4191,7 +4770,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441">
         <v>5851</v>
       </c>
@@ -4199,7 +4778,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442">
         <v>5852</v>
       </c>
